--- a/Phoenix_Zillow_Codes.xlsx
+++ b/Phoenix_Zillow_Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMadd\git\Proletariats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janin\OneDrive\Documents\GitHub\Proletariats-jgoldpac\Proletariats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE3A440-4CEC-41EB-8035-8096FE8388C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7FE3A440-4CEC-41EB-8035-8096FE8388C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B1F83230-628A-48ED-83AC-EEBB614FE7BA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3B2BBB1-A1A0-484C-856C-C7656FC21041}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{C3B2BBB1-A1A0-484C-856C-C7656FC21041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>code</t>
   </si>
@@ -184,54 +184,6 @@
   </si>
   <si>
     <t>median market value of sale to list ratio</t>
-  </si>
-  <si>
-    <t>C4_HSAFRAL</t>
-  </si>
-  <si>
-    <t>median market value of  home sold as foreclosure - ratio - all homes</t>
-  </si>
-  <si>
-    <t>C4_MSPAH</t>
-  </si>
-  <si>
-    <t>median market value of median sold price - all homes</t>
-  </si>
-  <si>
-    <t>C4_MSPFAH</t>
-  </si>
-  <si>
-    <t>median market value of median sold price per square foot - all homes</t>
-  </si>
-  <si>
-    <t>C4_MSPFCO</t>
-  </si>
-  <si>
-    <t>median market value of median sold price per square foot - condo</t>
-  </si>
-  <si>
-    <t>C4_MSPFSF</t>
-  </si>
-  <si>
-    <t>median market value of median sold price per square foot - single-family residence</t>
-  </si>
-  <si>
-    <t>C4_PTPFHAH</t>
-  </si>
-  <si>
-    <t>median market value of percent transactions that are previously foreclosured homes - all homes</t>
-  </si>
-  <si>
-    <t>C4_TURNAH</t>
-  </si>
-  <si>
-    <t>median market value of turnover - all homes</t>
-  </si>
-  <si>
-    <t>C4_USRAH</t>
-  </si>
-  <si>
-    <t>median market value of unsold renos - all homes</t>
   </si>
 </sst>
 </file>
@@ -583,20 +535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3FC132-A517-4F50-9E5C-145ABA4B6244}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" customWidth="1"/>
-    <col min="3" max="3" width="72.77734375" customWidth="1"/>
+    <col min="2" max="2" width="50.20703125" customWidth="1"/>
+    <col min="3" max="3" width="72.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -616,7 +568,7 @@
         <v>{"Code":"C36159_BSICG","Label":"median market value of buyer seller index cross"},</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -628,7 +580,7 @@
         <v>{"Code":"C36159_BSICT","Label":"median market value of buyer seller index cross time"},</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -640,7 +592,7 @@
         <v>{"Code":"C36159_DOZ","Label":"median market value of days on zillow"},</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -652,7 +604,7 @@
         <v>{"Code":"C36159_FOR10K","Label":"median market value of foreclosures per 10,000 homes"},</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -664,7 +616,7 @@
         <v>{"Code":"C36159_MDLNSAH","Label":"median market value of median daily listings - nsa - all homes"},</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -676,7 +628,7 @@
         <v>{"Code":"C36159_MDLSAAH","Label":"median market value of median daily listings - sa - all homes"},</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -688,7 +640,7 @@
         <v>{"Code":"C36159_MLNSAH","Label":"median market value of monthly listings - nsa - all homes"},</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -700,7 +652,7 @@
         <v>{"Code":"C36159_MLSAAH","Label":"median market value of monthly listings - sa - all homes"},</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -712,7 +664,7 @@
         <v>{"Code":"C36159_MTURN","Label":"median market value of monthly turnover"},</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -724,7 +676,7 @@
         <v>{"Code":"C36159_NMLNSAH","Label":"median market value of new monthly listings - nsa - all homes"},</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -736,7 +688,7 @@
         <v>{"Code":"C36159_NMLSAAH","Label":"median market value of new monthly listings - sa - all homes"},</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -748,7 +700,7 @@
         <v>{"Code":"C36159_SC","Label":"median market value of sales counts"},</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -760,7 +712,7 @@
         <v>{"Code":"C36159_SCBT","Label":"median market value of sales counts - bottom tier"},</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -772,7 +724,7 @@
         <v>{"Code":"C36159_SCMT","Label":"median market value of sales counts - middle tier"},</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -784,7 +736,7 @@
         <v>{"Code":"C36159_SCSA","Label":"median market value of sales counts - sa"},</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -796,7 +748,7 @@
         <v>{"Code":"C36159_SCSABT","Label":"median market value of sales counts - sa - bottom tier"},</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -808,7 +760,7 @@
         <v>{"Code":"C36159_SCSAMT","Label":"median market value of sales counts - sa - middle tier"},</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -820,7 +772,7 @@
         <v>{"Code":"C36159_SCSATT","Label":"median market value of sales counts - sa - top tier"},</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -832,7 +784,7 @@
         <v>{"Code":"C36159_SCTT","Label":"median market value of sales counts - top tier"},</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -844,7 +796,7 @@
         <v>{"Code":"C36159_SP","Label":"median market value of sales prices"},</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -856,7 +808,7 @@
         <v>{"Code":"C36159_SPBT","Label":"median market value of sales counts - bottom tier"},</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -868,7 +820,7 @@
         <v>{"Code":"C36159_SPFS","Label":"median market value of sales previously foreclosed share"},</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -880,7 +832,7 @@
         <v>{"Code":"C36159_SPMT","Label":"median market value of sales prices - middle tier"},</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -892,7 +844,7 @@
         <v>{"Code":"C36159_SPTT","Label":"median market value of sales prices - top tier"},</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -902,102 +854,6 @@
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>{"Code":"C36159_STLR","Label":"median market value of sale to list ratio"},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Code":"C4_HSAFRAL","Label":"median market value of  home sold as foreclosure - ratio - all homes"},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Code":"C4_MSPAH","Label":"median market value of median sold price - all homes"},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Code":"C4_MSPFAH","Label":"median market value of median sold price per square foot - all homes"},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Code":"C4_MSPFCO","Label":"median market value of median sold price per square foot - condo"},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Code":"C4_MSPFSF","Label":"median market value of median sold price per square foot - single-family residence"},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Code":"C4_PTPFHAH","Label":"median market value of percent transactions that are previously foreclosured homes - all homes"},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Code":"C4_TURNAH","Label":"median market value of turnover - all homes"},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Code":"C4_USRAH","Label":"median market value of unsold renos - all homes"},</v>
       </c>
     </row>
   </sheetData>
